--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1152486.00786877</v>
+        <v>1205700.853041331</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18084029.22468236</v>
+        <v>16612500.99216497</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1513771.15649779</v>
+        <v>278692.0725916857</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6633375.788814208</v>
+        <v>7075124.675543565</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>252.7846849598199</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,13 +715,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>189.8158001914103</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>73.49658552480598</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.61822128706638</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -877,13 +879,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>274.2763478522639</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>39.34122081347522</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>129.0859372761873</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>143.9773335111161</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>417.3759902475703</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>347.3423948989258</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1309,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,16 +1344,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>131.996999652747</v>
       </c>
       <c r="V10" t="n">
-        <v>254.0931201069083</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1376,16 +1378,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>35.94944865003936</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1421,10 +1423,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1531,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>126.8355823247564</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1543,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>10.04027365719986</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1619,13 +1621,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1670,10 +1672,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>388.0623711764001</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1777,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>124.4124267272032</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1822,7 +1824,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855477</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1850,7 +1852,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932889</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735226122</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>81.49380289235744</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2068,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2135,7 +2137,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2251,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2305,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.008513159456065</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2488,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>2.008513159454771</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2542,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2725,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>3.139541480023854</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>18.05677735225841</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3424,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3439,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3487,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>47.90525155920228</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3724,7 +3726,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>13.51446909089648</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3752,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3806,7 +3808,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>93.94369027722745</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3901,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3910,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.292363805517355</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>288.9079710262013</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3989,13 +3991,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>78.47678022721499</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1243.776125962249</v>
+        <v>408.8145501306011</v>
       </c>
       <c r="C2" t="n">
-        <v>1209.674057186077</v>
+        <v>374.7124813544285</v>
       </c>
       <c r="D2" t="n">
-        <v>781.092382923345</v>
+        <v>342.8431005692771</v>
       </c>
       <c r="E2" t="n">
-        <v>751.3580421220443</v>
+        <v>313.1087597679763</v>
       </c>
       <c r="F2" t="n">
-        <v>323.4906125312521</v>
+        <v>289.2817342175881</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4331,25 +4333,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4361,19 +4363,19 @@
         <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V2" t="n">
-        <v>1477.116202953456</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W2" t="n">
-        <v>1285.383071446981</v>
+        <v>450.4214956153326</v>
       </c>
       <c r="X2" t="n">
-        <v>1270.281012066696</v>
+        <v>435.3194362350473</v>
       </c>
       <c r="Y2" t="n">
-        <v>1266.035292406753</v>
+        <v>431.0737165751048</v>
       </c>
     </row>
     <row r="3">
@@ -4404,28 +4406,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>778.554892512724</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>286.0179953808982</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="C4" t="n">
-        <v>286.0179953808982</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="D4" t="n">
-        <v>286.0179953808982</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E4" t="n">
-        <v>286.0179953808982</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F4" t="n">
-        <v>286.0179953808982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>120.4267204067259</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>120.4267204067259</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4510,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W4" t="n">
-        <v>705.2562847857771</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="X4" t="n">
-        <v>705.2562847857771</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.8366140998854</v>
+        <v>454.6477016666967</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.721030006719</v>
+        <v>170.3819918753502</v>
       </c>
       <c r="C5" t="n">
-        <v>1216.618961230546</v>
+        <v>136.2799230991776</v>
       </c>
       <c r="D5" t="n">
-        <v>1176.880354348248</v>
+        <v>104.4105423140261</v>
       </c>
       <c r="E5" t="n">
-        <v>748.2986800855164</v>
+        <v>74.67620151272538</v>
       </c>
       <c r="F5" t="n">
-        <v>724.4716545351282</v>
+        <v>50.84917596233717</v>
       </c>
       <c r="G5" t="n">
-        <v>323.0738231583921</v>
+        <v>50.84917596233717</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233717</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>102.8181913809241</v>
       </c>
       <c r="K5" t="n">
-        <v>267.8706684926505</v>
+        <v>726.918975425704</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>726.918975425704</v>
       </c>
       <c r="M5" t="n">
-        <v>1107.976466382457</v>
+        <v>726.918975425704</v>
       </c>
       <c r="N5" t="n">
-        <v>1528.02936532736</v>
+        <v>726.918975425704</v>
       </c>
       <c r="O5" t="n">
-        <v>1528.02936532736</v>
+        <v>1351.019759470484</v>
       </c>
       <c r="P5" t="n">
-        <v>1528.02936532736</v>
+        <v>1975.120543515264</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2301.552102346897</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2042.329799663914</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1679.712849597741</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>1274.857395008774</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111165</v>
+        <v>855.7149315880846</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>447.428807887738</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174123</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.1680387732647</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993477</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760927</v>
       </c>
       <c r="L6" t="n">
-        <v>1224.671464618085</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1580.010651986078</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1580.010651986078</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1580.010651986078</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1580.010651986078</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>800.5379433870891</v>
+        <v>773.6949256906746</v>
       </c>
       <c r="C7" t="n">
-        <v>800.5379433870891</v>
+        <v>601.1332141738995</v>
       </c>
       <c r="D7" t="n">
-        <v>634.6599505886118</v>
+        <v>455.7015641626712</v>
       </c>
       <c r="E7" t="n">
-        <v>464.9019468393491</v>
+        <v>455.7015641626712</v>
       </c>
       <c r="F7" t="n">
-        <v>288.1948928011053</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148019</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>411.7705263253026</v>
       </c>
       <c r="L7" t="n">
-        <v>33.94366860160834</v>
+        <v>684.5077410748456</v>
       </c>
       <c r="M7" t="n">
-        <v>453.9965675465116</v>
+        <v>1143.991608255759</v>
       </c>
       <c r="N7" t="n">
-        <v>874.0494664914149</v>
+        <v>1586.250411413403</v>
       </c>
       <c r="O7" t="n">
-        <v>1293.718715717196</v>
+        <v>2005.919660639185</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2353.426554609526</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="T7" t="n">
-        <v>1675.765608785789</v>
+        <v>2275.739883052314</v>
       </c>
       <c r="U7" t="n">
-        <v>1675.765608785789</v>
+        <v>1997.306882305419</v>
       </c>
       <c r="V7" t="n">
-        <v>1675.765608785789</v>
+        <v>1710.35137417585</v>
       </c>
       <c r="W7" t="n">
-        <v>1403.739204372081</v>
+        <v>1438.324969762141</v>
       </c>
       <c r="X7" t="n">
-        <v>1158.347449705493</v>
+        <v>1192.933215095554</v>
       </c>
       <c r="Y7" t="n">
-        <v>930.9277790196015</v>
+        <v>965.5135444096618</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>981.0148405224497</v>
+        <v>1373.289198434989</v>
       </c>
       <c r="C8" t="n">
-        <v>946.912771746277</v>
+        <v>935.1467256184123</v>
       </c>
       <c r="D8" t="n">
-        <v>915.0433909611256</v>
+        <v>499.2369407928568</v>
       </c>
       <c r="E8" t="n">
-        <v>481.2686461194208</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4808,10 +4810,10 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
         <v>1293.567921177998</v>
@@ -4838,16 +4840,16 @@
         <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>2235.558048676956</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="W8" t="n">
-        <v>1830.702594087989</v>
+        <v>2222.976952000528</v>
       </c>
       <c r="X8" t="n">
-        <v>1411.5601306673</v>
+        <v>2207.874892620243</v>
       </c>
       <c r="Y8" t="n">
-        <v>1003.274006966953</v>
+        <v>1799.588768919897</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>397.8892067392439</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="N9" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="O9" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P9" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1043.799427915185</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>871.2377163984103</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>705.359723599933</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>535.6017198506702</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>358.8946658124264</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4990,22 +4992,22 @@
         <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1708.429471986652</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1708.429471986652</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1463.037717320064</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1235.618046634173</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1408.924591552356</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>970.782118735779</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>534.8723339102235</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>498.5597595162443</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>70.69232992545206</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>70.69232992545206</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H11" t="n">
-        <v>70.69232992545206</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>505.53022800551</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1339.880519963688</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2209.540334302015</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2209.540334302015</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2209.540334302015</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3079.200148640341</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>3079.200148640341</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3344.622962876546</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>3513.777027629603</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3430.12515381344</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3430.12515381344</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3430.12515381344</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3067.508203747266</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2662.652749158299</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2243.51028573761</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>1835.224162037263</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>576.4472855438848</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>469.9908243805272</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>374.9005355270804</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>280.7801208540341</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>197.3962824701957</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>112.0111927363796</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>70.27554055259206</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L12" t="n">
-        <v>939.9353548909187</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M12" t="n">
-        <v>939.9353548909187</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="N12" t="n">
-        <v>939.9353548909187</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="O12" t="n">
-        <v>1733.515302031401</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="P12" t="n">
-        <v>1733.515302031401</v>
+        <v>1602.717526820355</v>
       </c>
       <c r="Q12" t="n">
-        <v>1733.515302031401</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R12" t="n">
-        <v>1733.515302031401</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1670.059864479784</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1539.881220810386</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1363.544673810354</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1164.427155872353</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>979.1044016055473</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>824.2369658444272</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>697.751186623648</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>758.3515566755764</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C13" t="n">
-        <v>758.3515566755764</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="D13" t="n">
-        <v>592.4735638770991</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>422.7155601278363</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>246.0085060895925</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>80.41723111542021</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H13" t="n">
-        <v>80.41723111542021</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>156.8552257172819</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>431.6136802884175</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>849.8235620563786</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1309.307429237292</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1751.566232394936</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2171.235481620718</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2518.742375591059</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2686.935150455392</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2665.517329160764</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2506.27596045876</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T13" t="n">
-        <v>2260.396514037216</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U13" t="n">
-        <v>1981.963513290321</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V13" t="n">
-        <v>1695.008005160751</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W13" t="n">
-        <v>1422.981600747043</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X13" t="n">
-        <v>1177.589846080455</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1701753945636</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2095.100127184005</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1656.957654367428</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1221.047869541873</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E14" t="n">
-        <v>787.2731247001681</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>359.4056951093758</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>359.4056951093758</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>70.27554055259206</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>505.53022800551</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1339.880519963688</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1339.880519963688</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1339.880519963688</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N14" t="n">
-        <v>2209.540334302015</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>2209.540334302015</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>3037.850209135411</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3344.622962876546</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>3513.777027629603</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>3513.777027629603</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>3513.777027629603</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>3254.55472494662</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>2891.937774880446</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>2487.08232029148</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2095.100127184005</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2095.100127184005</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>576.4472855438848</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>469.9908243805272</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>374.9005355270804</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>280.7801208540341</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>197.3962824701957</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>112.0111927363796</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>394.8338655188044</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>394.8338655188044</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="L15" t="n">
-        <v>394.8338655188044</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="M15" t="n">
-        <v>394.8338655188044</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="N15" t="n">
-        <v>394.8338655188044</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="O15" t="n">
-        <v>1192.776363399325</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="P15" t="n">
-        <v>1192.776363399325</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q15" t="n">
-        <v>1733.515302031401</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R15" t="n">
-        <v>1733.515302031401</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1670.059864479784</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1539.881220810386</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1363.544673810354</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1164.427155872353</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>979.1044016055473</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>824.2369658444272</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>697.751186623648</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1109.411544096567</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>936.849832579792</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>770.9718397813147</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>601.2138360320519</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>424.5067819938081</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>298.8376640875422</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>158.9354897779167</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>156.8552257172819</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>431.6136802884175</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>849.8235620563786</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1309.307429237292</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1751.566232394936</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2171.235481620718</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2518.742375591059</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2686.935150455392</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2665.517329160764</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2665.517329160764</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2419.637882739219</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2141.204881992324</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1854.249373862755</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.222969449046</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1336.831214782459</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1109.411544096567</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
         <v>1221.073045167952</v>
@@ -5513,28 +5515,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L17" t="n">
-        <v>1371.865819681875</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L18" t="n">
-        <v>1407.425887208553</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="M18" t="n">
-        <v>1407.425887208553</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="N18" t="n">
-        <v>1407.425887208553</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="O18" t="n">
-        <v>1407.425887208553</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P18" t="n">
-        <v>1407.425887208553</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>970.996046390399</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736239</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751466</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258839</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>286.0912842876401</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134677</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173583</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878955</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176951</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="T19" t="n">
-        <v>2455.944287558408</v>
+        <v>2473.041003752038</v>
       </c>
       <c r="U19" t="n">
-        <v>2177.511286811513</v>
+        <v>2194.608003005143</v>
       </c>
       <c r="V19" t="n">
-        <v>1890.555778681944</v>
+        <v>1907.652494875574</v>
       </c>
       <c r="W19" t="n">
-        <v>1618.529374268236</v>
+        <v>1635.626090461865</v>
       </c>
       <c r="X19" t="n">
-        <v>1373.137619601648</v>
+        <v>1390.234335795278</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109386</v>
       </c>
     </row>
     <row r="20">
@@ -5753,25 +5755,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L20" t="n">
-        <v>1177.320806523639</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M20" t="n">
-        <v>2334.36864173419</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N20" t="n">
-        <v>3460.099625170637</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O20" t="n">
-        <v>4440.279291740943</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P20" t="n">
-        <v>4440.279291740943</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5783,16 +5785,16 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
         <v>2955.199618136696</v>
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3409.849289273891</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C22" t="n">
-        <v>3237.287577757116</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D22" t="n">
-        <v>3071.409584958638</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E22" t="n">
-        <v>2901.651581209376</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F22" t="n">
-        <v>2724.944527171132</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G22" t="n">
-        <v>2724.944527171132</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H22" t="n">
-        <v>2585.042352861507</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I22" t="n">
         <v>2496.382403636182</v>
@@ -5932,28 +5934,28 @@
         <v>5113.042013538981</v>
       </c>
       <c r="R22" t="n">
-        <v>5091.624192244353</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S22" t="n">
-        <v>4932.38282354235</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T22" t="n">
-        <v>4686.503377120805</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U22" t="n">
-        <v>4408.070376373911</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V22" t="n">
-        <v>4121.114868244342</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W22" t="n">
-        <v>3849.088463830633</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X22" t="n">
-        <v>3603.696709164046</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y22" t="n">
-        <v>3601.667907992878</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="23">
@@ -5993,19 +5995,19 @@
         <v>936.6111322289576</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M23" t="n">
-        <v>3168.718933692368</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N23" t="n">
-        <v>4294.449917128814</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q23" t="n">
         <v>5113.04201353898</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1017.756527079655</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>845.1948155628801</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>679.3168227644028</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>509.55881901514</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>332.8517649768962</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1209.575145798642</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6229,25 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1601.005850966132</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2758.053686176683</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176683</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3184.458419759167</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>3011.896708242392</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>2846.018715443915</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>2676.260711694652</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>2499.553657656408</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>4932.38282354235</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>4686.503377120805</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>4408.070376373911</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>4121.114868244342</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>3849.088463830633</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>3603.696709164046</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>3376.277038478154</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>1463.16863798718</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C30" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D30" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E30" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F30" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G30" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H30" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R30" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S30" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T30" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U30" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V30" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W30" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X30" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y30" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3365.117609755799</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>3192.555898239023</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>3026.677905440546</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>2856.919901691283</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>2680.21284765304</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>2514.621572678867</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>5113.042013538981</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>4867.162567117437</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>4588.729566370543</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V31" t="n">
-        <v>4301.774058240973</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>4029.747653827265</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>3784.355899160677</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>3556.936228474786</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N32" t="n">
-        <v>3572.656769371182</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>3774.360577026385</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>3774.360577026385</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>3774.360577026385</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>3774.360577026385</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N33" t="n">
-        <v>3774.360577026385</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O33" t="n">
-        <v>4788.162186844686</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P33" t="n">
-        <v>4788.162186844686</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q33" t="n">
-        <v>5113.042013538981</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I34" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J34" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K34" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L34" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M34" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N34" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O34" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P34" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q34" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6919,10 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F35" t="n">
         <v>793.2056155771594</v>
@@ -6938,25 +6940,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>936.6111322289576</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2093.658967439508</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>3219.389950875955</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>4199.569617446262</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>5027.879492279658</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>5027.879492279658</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7016,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>426.819165236992</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="M36" t="n">
-        <v>426.819165236992</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N36" t="n">
-        <v>1660.646436797299</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O36" t="n">
-        <v>1660.646436797299</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P36" t="n">
-        <v>1660.646436797299</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q36" t="n">
-        <v>1660.646436797299</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1008.757289365886</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1427.995578770765</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1200.575908084873</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7166,37 +7168,37 @@
         <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L38" t="n">
-        <v>1371.865819681875</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M38" t="n">
-        <v>2528.913654892426</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N38" t="n">
-        <v>3654.644638328873</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.644638328873</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1805.969972627221</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>1367.827499810645</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>931.9177149850891</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>498.1429701433843</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>70.27554055259206</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>70.27554055259206</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H41" t="n">
-        <v>70.27554055259206</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I41" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>505.53022800551</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1339.880519963688</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1339.880519963688</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M41" t="n">
-        <v>1339.880519963688</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N41" t="n">
-        <v>1339.880519963688</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>2209.540334302015</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>2967.278241671008</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>3513.777027629603</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>3513.777027629603</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>3513.777027629603</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>3513.777027629603</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>3513.777027629603</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>3151.160077563429</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>2746.304622974462</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2327.162159553773</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2232.269543112129</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>576.4472855438848</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>469.9908243805272</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>374.9005355270804</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>280.7801208540341</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>197.3962824701957</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>112.0111927363796</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>70.27554055259206</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>70.27554055259206</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>751.0090606229694</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>751.0090606229694</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>751.0090606229694</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>751.0090606229694</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>751.0090606229694</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1570.732227102168</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1733.515302031401</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1733.515302031401</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1670.059864479784</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1539.881220810386</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1363.544673810354</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1164.427155872353</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>979.1044016055473</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>824.2369658444272</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>697.751186623648</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.4557083659962</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C43" t="n">
-        <v>810.8939968492211</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D43" t="n">
-        <v>810.8939968492211</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E43" t="n">
-        <v>641.1359930999583</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F43" t="n">
-        <v>464.4289390617145</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G43" t="n">
-        <v>298.8376640875422</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>158.9354897779167</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>156.8552257172819</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>431.6136802884175</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>849.8235620563786</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1309.307429237292</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1751.566232394936</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2171.235481620718</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2518.742375591059</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2686.935150455392</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2665.517329160764</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2506.27596045876</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2260.396514037216</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>1981.963513290321</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>1695.008005160751</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W43" t="n">
-        <v>1422.981600747043</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X43" t="n">
-        <v>1177.589846080455</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y43" t="n">
-        <v>1175.274327084983</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1659.653733170444</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1367.827499810645</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>931.9177149850891</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>498.1429701433843</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>70.27554055259206</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>70.27554055259206</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>70.27554055259206</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>505.53022800551</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1339.880519963688</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1646.653273704823</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1646.653273704823</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>1646.653273704823</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>2516.313088043149</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>3344.622962876546</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>3344.622962876546</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>3513.777027629603</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>3513.777027629603</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>3513.777027629603</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>3254.55472494662</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>2891.937774880446</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>2487.08232029148</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>2067.939856870791</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>1659.653733170444</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>576.4472855438848</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>469.9908243805272</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>374.9005355270804</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>280.7801208540341</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>197.3962824701957</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>112.0111927363796</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>70.27554055259206</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>394.8338655188044</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1075.567385589182</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1075.567385589182</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1075.567385589182</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1075.567385589182</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1075.567385589182</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1616.342523937061</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1616.342523937061</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1733.515302031401</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1670.059864479784</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1539.881220810386</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1363.544673810354</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1164.427155872353</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>979.1044016055473</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>824.2369658444272</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>697.751186623648</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1149.333701164473</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>976.7719896476984</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>810.8939968492211</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>641.1359930999583</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>464.4289390617145</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>298.8376640875422</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>158.9354897779167</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>156.8552257172819</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>431.6136802884175</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>849.8235620563786</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1309.307429237292</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1751.566232394936</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2171.235481620718</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2518.742375591059</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2686.935150455392</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2665.517329160764</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2506.27596045876</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2260.396514037216</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2181.127039060231</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1894.171530930661</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1622.145126516953</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1376.753371850365</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1149.333701164473</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>407.152590549595</v>
+      </c>
+      <c r="N2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L2" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>424.2958575201044</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L3" t="n">
-        <v>385.2554146752024</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>52.91495433479485</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,13 +8297,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>30.91440664741776</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,25 +8373,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>275.4921361106495</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6484237362511</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8456,13 +8458,13 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -8538,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>20.13097499434645</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="N9" t="n">
         <v>667.515206607857</v>
@@ -8550,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8693,22 +8695,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>878.4442569074008</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
-        <v>878.4442569074008</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>268.103852763843</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8769,10 +8771,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
-        <v>878.4442569074007</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>801.5959062025073</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8930,22 +8932,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
-        <v>878.4442569074008</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>309.8714684253887</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9003,10 +9005,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>806.0025231116374</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>118.392906878933</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>243.3352893400963</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,10 +9403,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>922.699389992646</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9419,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>508.6956131767492</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,22 +9643,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9711,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>715.8552653209142</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,28 +9877,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1074.232649739834</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>216.3468123274661</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10127,13 +10129,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,22 +10193,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10355,22 +10357,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>833.0630236930783</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10434,22 +10436,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>350.8506558504741</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>328.1614411053479</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,10 +10588,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10601,13 +10603,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>86.02274874679006</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,22 +10664,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10686,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>105.9132979316059</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10835,16 +10837,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>750.2469944428858</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,22 +11068,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>878.4442569074008</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>765.3918256252459</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,19 +11135,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>164.4273484133671</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,22 +11302,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>309.8714684253887</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
-        <v>878.4442569074008</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11370,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>546.2375134827066</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23264,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>393.4875487432484</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23419,7 +23421,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>37.38363054573608</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>77.73307607587155</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>26.88866761008234</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>39.52293549722737</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>120.446375214268</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>161.9268490649719</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>223.1369608195767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>161.9268490649758</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24613,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.7958207444067</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>120.4463752142708</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>195.0325855607194</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>229.4233680290252</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>310.2595721861156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.8531101735154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>144.8530770622096</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>197.1718905122107</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>571800.8096559576</v>
+        <v>588710.5728869914</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>475573.7954481638</v>
+        <v>621197.1299715989</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>475573.7954481638</v>
+        <v>621197.1299715989</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>621197.129971599</v>
+        <v>621197.1299715989</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>475573.7954481638</v>
+        <v>621197.1299715989</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>475573.7954481638</v>
+        <v>621197.1299715989</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415514.1729150665</v>
+        <v>415514.1729150666</v>
       </c>
       <c r="C2" t="n">
         <v>415514.1729150667</v>
       </c>
       <c r="D2" t="n">
-        <v>415514.1729150667</v>
+        <v>415514.1729150665</v>
       </c>
       <c r="E2" t="n">
-        <v>312595.9987037248</v>
+        <v>408314.627706448</v>
       </c>
       <c r="F2" t="n">
-        <v>312595.9987037249</v>
+        <v>408314.627706448</v>
       </c>
       <c r="G2" t="n">
         <v>408314.6277064481</v>
       </c>
       <c r="H2" t="n">
-        <v>408314.6277064481</v>
+        <v>408314.627706448</v>
       </c>
       <c r="I2" t="n">
         <v>408314.627706448</v>
       </c>
       <c r="J2" t="n">
-        <v>408314.627706448</v>
+        <v>408314.6277064479</v>
       </c>
       <c r="K2" t="n">
         <v>408314.627706448</v>
@@ -26350,10 +26352,10 @@
         <v>408314.627706448</v>
       </c>
       <c r="O2" t="n">
-        <v>312595.9987037249</v>
+        <v>408314.627706448</v>
       </c>
       <c r="P2" t="n">
-        <v>312595.9987037249</v>
+        <v>408314.627706448</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501654</v>
       </c>
       <c r="D3" t="n">
-        <v>75551.22640712859</v>
+        <v>11527.59554998241</v>
       </c>
       <c r="E3" t="n">
-        <v>62978.77398033719</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>109583.635915743</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877281</v>
       </c>
       <c r="L3" t="n">
-        <v>61556.6282799684</v>
+        <v>9392.301726622019</v>
       </c>
       <c r="M3" t="n">
-        <v>52564.36305084745</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,16 +26420,16 @@
         <v>218225.2660325691</v>
       </c>
       <c r="C4" t="n">
-        <v>218225.2660325691</v>
+        <v>187964.4997909368</v>
       </c>
       <c r="D4" t="n">
         <v>182515.9822733277</v>
       </c>
       <c r="E4" t="n">
-        <v>82925.17055705383</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="F4" t="n">
-        <v>82925.17055705385</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="G4" t="n">
         <v>108317.3178284629</v>
@@ -26454,10 +26456,10 @@
         <v>108317.3178284629</v>
       </c>
       <c r="O4" t="n">
-        <v>82925.17055705385</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="P4" t="n">
-        <v>82925.17055705385</v>
+        <v>108317.3178284629</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800265</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>53409.41081996996</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>53409.41081996996</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>53409.41081996996</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>53409.41081996996</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4327.18191443479</v>
+        <v>-4327.181914434768</v>
       </c>
       <c r="C6" t="n">
-        <v>137864.1187452752</v>
+        <v>89005.69142111077</v>
       </c>
       <c r="D6" t="n">
-        <v>83234.43967285271</v>
+        <v>147258.0705299987</v>
       </c>
       <c r="E6" t="n">
-        <v>113282.6433463639</v>
+        <v>39923.96205114282</v>
       </c>
       <c r="F6" t="n">
-        <v>176261.4173267011</v>
+        <v>222279.0712721925</v>
       </c>
       <c r="G6" t="n">
-        <v>112695.4353564496</v>
+        <v>222279.0712721926</v>
       </c>
       <c r="H6" t="n">
-        <v>222279.0712721927</v>
+        <v>222279.0712721926</v>
       </c>
       <c r="I6" t="n">
-        <v>222279.0712721925</v>
+        <v>222279.0712721926</v>
       </c>
       <c r="J6" t="n">
-        <v>111264.6059272024</v>
+        <v>111264.6059272023</v>
       </c>
       <c r="K6" t="n">
-        <v>222279.0712721925</v>
+        <v>169233.2166334198</v>
       </c>
       <c r="L6" t="n">
-        <v>160722.4429922242</v>
+        <v>212886.7695455705</v>
       </c>
       <c r="M6" t="n">
-        <v>169714.7082213452</v>
+        <v>70078.90033420497</v>
       </c>
       <c r="N6" t="n">
-        <v>222279.0712721925</v>
+        <v>222279.0712721926</v>
       </c>
       <c r="O6" t="n">
-        <v>176261.4173267011</v>
+        <v>222279.0712721926</v>
       </c>
       <c r="P6" t="n">
-        <v>176261.4173267011</v>
+        <v>222279.0712721926</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>878.4442569074007</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>878.4442569074007</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>878.4442569074007</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>878.4442569074007</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483604</v>
       </c>
       <c r="D4" t="n">
-        <v>243.2193490877526</v>
+        <v>37.11037423939223</v>
       </c>
       <c r="E4" t="n">
-        <v>210.9290502995438</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>399.8162464773446</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483604</v>
       </c>
       <c r="L4" t="n">
-        <v>243.2193490877526</v>
+        <v>37.11037423939223</v>
       </c>
       <c r="M4" t="n">
-        <v>210.9290502995435</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483604</v>
       </c>
       <c r="L4" t="n">
-        <v>243.2193490877526</v>
+        <v>37.11037423939223</v>
       </c>
       <c r="M4" t="n">
-        <v>210.9290502995438</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>399.8162464773446</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>144.5991681031489</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,13 +27435,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>210.9910998516667</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>90.72262734568655</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>2.155128446005037</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27597,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>147.7602269277947</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>392.2094661638247</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.8144952556099</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>20.24187935937644</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>12.0610071457175</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
-      </c>
-      <c r="C8" t="n">
-        <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27871,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,13 +27912,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>11.64838566658597</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,16 +28064,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>143.6516710866787</v>
       </c>
       <c r="V10" t="n">
-        <v>29.99283294136558</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28570,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-8.193449907323581e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28761,7 +28763,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28855,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-7.6250157187155e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -34699,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>407.152590549595</v>
+      </c>
+      <c r="N2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L2" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>424.2958575201044</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L3" t="n">
-        <v>385.2554146752024</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>52.91495433479485</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,19 +35011,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>30.91440664741776</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35033,10 +35035,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,25 +35093,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>275.4921361106495</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6484237362511</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35176,13 +35178,13 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35246,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -35258,7 +35260,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>20.13097499434645</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="N9" t="n">
         <v>667.515206607857</v>
@@ -35270,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35410,28 +35412,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>878.4442569074008</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
-        <v>878.4442569074008</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>268.103852763843</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
-        <v>878.4442569074007</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>801.5959062025073</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,7 +35573,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,28 +35649,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
-        <v>878.4442569074008</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>309.8714684253887</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,10 +35740,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>806.0025231116374</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35808,7 +35810,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35975,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>118.392906878933</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>243.3352893400963</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36057,7 +36059,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165107</v>
+        <v>351.0170646165111</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36121,10 +36123,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>922.699389992646</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36139,10 +36141,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>508.6956131767492</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,22 +36363,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36431,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36452,13 +36454,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>715.8552653209142</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,28 +36597,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>1074.232649739834</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>216.3468123274661</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -36847,13 +36849,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
       </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O32" t="n">
-        <v>833.0630236930783</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>350.8506558504741</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>328.1614411053479</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,10 +37308,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37318,16 +37320,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>86.02274874679006</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37406,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>105.9132979316059</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37555,16 +37557,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>750.2469944428858</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>878.4442569074008</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>765.3918256252459</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37874,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638365</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>164.4273484133671</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>309.8714684253887</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
-        <v>878.4442569074008</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>546.2375134827066</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1205700.853041331</v>
+        <v>1205175.670672298</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16612500.99216497</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916857</v>
+        <v>278692.0725916855</v>
       </c>
     </row>
     <row r="9">
@@ -664,19 +664,19 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>31.58393400326083</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>252.7846849598199</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -822,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>73.49658552480598</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>6.411477640637852</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -882,10 +882,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>274.2763478522639</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>317.6904966059795</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -1059,16 +1059,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>143.9773335111161</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>145.6280143194825</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1135,13 +1135,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>135.4611879314772</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>417.3759902475703</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1195,13 +1195,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1311,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U10" t="n">
-        <v>131.996999652747</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1381,7 +1381,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948872</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1530,10 +1530,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>126.8355823247564</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1545,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735226156</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1618,10 +1618,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629715</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>162.9070982917668</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1776,16 +1776,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>144.4937753855477</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1861,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112188</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>18.05677735226122</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2137,7 +2137,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561553</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2964,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>98.73120706589795</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -3000,16 +3000,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>172.6623007436909</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3204,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>85.55329631630661</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3255,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3489,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>103.3456594571955</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>101.7706336613758</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>16.05512456153482</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>408.8145501306011</v>
+        <v>846.680625966315</v>
       </c>
       <c r="C2" t="n">
-        <v>374.7124813544285</v>
+        <v>812.5785571901424</v>
       </c>
       <c r="D2" t="n">
-        <v>342.8431005692771</v>
+        <v>780.675593550485</v>
       </c>
       <c r="E2" t="n">
-        <v>313.1087597679763</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="F2" t="n">
-        <v>289.2817342175881</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4330,28 +4330,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>437.0247332457074</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>857.0776321906106</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>1277.130531135514</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4360,22 +4360,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1217.893900270473</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>855.2769502042993</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>450.4214956153326</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X2" t="n">
-        <v>435.3194362350473</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="Y2" t="n">
-        <v>431.0737165751048</v>
+        <v>868.9397924108188</v>
       </c>
     </row>
     <row r="3">
@@ -4412,7 +4412,7 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
         <v>804.6185656731816</v>
@@ -4424,10 +4424,10 @@
         <v>804.6185656731816</v>
       </c>
       <c r="O3" t="n">
-        <v>1224.671464618085</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>454.6477016666967</v>
+        <v>206.297901441134</v>
       </c>
       <c r="C4" t="n">
-        <v>454.6477016666967</v>
+        <v>206.297901441134</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4087263891149</v>
+        <v>40.41990864265668</v>
       </c>
       <c r="E4" t="n">
-        <v>210.6507226398521</v>
+        <v>40.41990864265668</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>40.41990864265668</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>40.41990864265668</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4497,10 +4497,10 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V4" t="n">
-        <v>726.6741060804052</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="W4" t="n">
-        <v>454.6477016666967</v>
+        <v>679.1093267936133</v>
       </c>
       <c r="X4" t="n">
-        <v>454.6477016666967</v>
+        <v>433.7175721270257</v>
       </c>
       <c r="Y4" t="n">
-        <v>454.6477016666967</v>
+        <v>206.297901441134</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170.3819918753502</v>
+        <v>863.0357172789339</v>
       </c>
       <c r="C5" t="n">
-        <v>136.2799230991776</v>
+        <v>424.8932444623572</v>
       </c>
       <c r="D5" t="n">
-        <v>104.4105423140261</v>
+        <v>103.9937529411659</v>
       </c>
       <c r="E5" t="n">
-        <v>74.67620151272538</v>
+        <v>74.25941213986511</v>
       </c>
       <c r="F5" t="n">
-        <v>50.84917596233717</v>
+        <v>50.43238658947689</v>
       </c>
       <c r="G5" t="n">
-        <v>50.84917596233717</v>
+        <v>50.43238658947689</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233717</v>
+        <v>50.43238658947689</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947718</v>
+        <v>50.43238658947689</v>
       </c>
       <c r="J5" t="n">
-        <v>102.8181913809241</v>
+        <v>485.6870740423948</v>
       </c>
       <c r="K5" t="n">
-        <v>726.918975425704</v>
+        <v>1109.787858087171</v>
       </c>
       <c r="L5" t="n">
-        <v>726.918975425704</v>
+        <v>1181.865694717417</v>
       </c>
       <c r="M5" t="n">
-        <v>726.918975425704</v>
+        <v>1181.865694717417</v>
       </c>
       <c r="N5" t="n">
-        <v>726.918975425704</v>
+        <v>1181.865694717417</v>
       </c>
       <c r="O5" t="n">
-        <v>1351.019759470484</v>
+        <v>1181.865694717417</v>
       </c>
       <c r="P5" t="n">
-        <v>1975.120543515264</v>
+        <v>1805.966478762193</v>
       </c>
       <c r="Q5" t="n">
-        <v>2521.619329473859</v>
+        <v>2352.465264720788</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473859</v>
+        <v>2521.619329473845</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473859</v>
+        <v>2521.619329473845</v>
       </c>
       <c r="T5" t="n">
-        <v>2301.552102346897</v>
+        <v>2521.619329473845</v>
       </c>
       <c r="U5" t="n">
-        <v>2042.329799663914</v>
+        <v>2521.619329473845</v>
       </c>
       <c r="V5" t="n">
-        <v>1679.712849597741</v>
+        <v>2521.619329473845</v>
       </c>
       <c r="W5" t="n">
-        <v>1274.857395008774</v>
+        <v>2116.763874884878</v>
       </c>
       <c r="X5" t="n">
-        <v>855.7149315880846</v>
+        <v>1697.621411464188</v>
       </c>
       <c r="Y5" t="n">
-        <v>447.428807887738</v>
+        <v>1289.335287763842</v>
       </c>
     </row>
     <row r="6">
@@ -4622,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807699</v>
+        <v>556.6041315807697</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174123</v>
+        <v>450.147670417412</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639655</v>
+        <v>355.0573815639652</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909192</v>
+        <v>260.9369668909189</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070808</v>
+        <v>177.5531285070805</v>
       </c>
       <c r="G6" t="n">
-        <v>92.1680387732647</v>
+        <v>92.16803877326441</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947718</v>
+        <v>50.43238658947689</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993477</v>
+        <v>76.49605974993449</v>
       </c>
       <c r="J6" t="n">
-        <v>401.0543847161471</v>
+        <v>401.0543847161468</v>
       </c>
       <c r="K6" t="n">
-        <v>1025.155168760927</v>
+        <v>1025.155168760923</v>
       </c>
       <c r="L6" t="n">
         <v>1055.760431341871</v>
@@ -4685,13 +4685,13 @@
         <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>959.2612476424324</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813123</v>
+        <v>804.3938118813121</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.9080326605331</v>
+        <v>677.9080326605329</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>773.6949256906746</v>
+        <v>1129.490547201358</v>
       </c>
       <c r="C7" t="n">
-        <v>601.1332141738995</v>
+        <v>956.9288356845833</v>
       </c>
       <c r="D7" t="n">
-        <v>455.7015641626712</v>
+        <v>791.050842886106</v>
       </c>
       <c r="E7" t="n">
-        <v>455.7015641626712</v>
+        <v>621.2928391368432</v>
       </c>
       <c r="F7" t="n">
-        <v>278.9945101244273</v>
+        <v>444.5857850985994</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244273</v>
+        <v>278.9945101244271</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148019</v>
+        <v>139.0923358148016</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947718</v>
+        <v>50.43238658947689</v>
       </c>
       <c r="J7" t="n">
-        <v>137.012071754167</v>
+        <v>137.0120717541668</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253026</v>
+        <v>411.7705263253023</v>
       </c>
       <c r="L7" t="n">
-        <v>684.5077410748456</v>
+        <v>829.9804080932635</v>
       </c>
       <c r="M7" t="n">
-        <v>1143.991608255759</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413403</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639185</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609526</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473859</v>
+        <v>2521.619329473845</v>
       </c>
       <c r="R7" t="n">
-        <v>2521.619329473859</v>
+        <v>2500.201508179216</v>
       </c>
       <c r="S7" t="n">
-        <v>2521.619329473859</v>
+        <v>2353.102503816103</v>
       </c>
       <c r="T7" t="n">
-        <v>2275.739883052314</v>
+        <v>2353.102503816103</v>
       </c>
       <c r="U7" t="n">
-        <v>1997.306882305419</v>
+        <v>2353.102503816103</v>
       </c>
       <c r="V7" t="n">
-        <v>1710.35137417585</v>
+        <v>2066.146995686534</v>
       </c>
       <c r="W7" t="n">
-        <v>1438.324969762141</v>
+        <v>1794.120591272825</v>
       </c>
       <c r="X7" t="n">
-        <v>1192.933215095554</v>
+        <v>1548.728836606237</v>
       </c>
       <c r="Y7" t="n">
-        <v>965.5135444096618</v>
+        <v>1321.309165920346</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1373.289198434989</v>
+        <v>969.2487943945847</v>
       </c>
       <c r="C8" t="n">
-        <v>935.1467256184123</v>
+        <v>832.4193116355168</v>
       </c>
       <c r="D8" t="n">
-        <v>499.2369407928568</v>
+        <v>396.5095268099613</v>
       </c>
       <c r="E8" t="n">
-        <v>77.64503145187676</v>
+        <v>366.7751860086605</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
         <v>53.81800590148855</v>
@@ -4810,13 +4810,13 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4843,13 +4843,13 @@
         <v>2223.792002549091</v>
       </c>
       <c r="W8" t="n">
-        <v>2222.976952000528</v>
+        <v>1818.936547960124</v>
       </c>
       <c r="X8" t="n">
-        <v>2207.874892620243</v>
+        <v>1399.794084539435</v>
       </c>
       <c r="Y8" t="n">
-        <v>1799.588768919897</v>
+        <v>1395.548364879493</v>
       </c>
     </row>
     <row r="9">
@@ -4892,16 +4892,16 @@
         <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>938.6281453713194</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1599.468199913098</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1599.468199913098</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2489.401636434797</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U10" t="n">
-        <v>2356.071333755254</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651792</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835215</v>
       </c>
       <c r="D11" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.84779000966</v>
       </c>
       <c r="E11" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167955</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I11" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J11" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="K11" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="L11" t="n">
-        <v>2446.925785934734</v>
+        <v>306.1208027766317</v>
       </c>
       <c r="M11" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.168637987183</v>
       </c>
       <c r="N11" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O11" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993936</v>
       </c>
       <c r="P11" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827332</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785927</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.39013972282</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595859</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912875</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846702</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257735</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837046</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C12" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D12" t="n">
         <v>406.885835245268</v>
@@ -5111,49 +5111,49 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H12" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1602.717526820355</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1765.500601749588</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S12" t="n">
-        <v>1702.045164197971</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T12" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1395.529973528541</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V12" t="n">
         <v>1196.412455590541</v>
@@ -5162,10 +5162,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y12" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>970.9960463903949</v>
+        <v>952.756877347711</v>
       </c>
       <c r="C13" t="n">
-        <v>970.9960463903949</v>
+        <v>780.1951658309359</v>
       </c>
       <c r="D13" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E13" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F13" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H13" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I13" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J13" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066093</v>
       </c>
       <c r="L13" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745703</v>
       </c>
       <c r="M13" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N13" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O13" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.22078133891</v>
       </c>
       <c r="P13" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q13" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="R13" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="S13" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T13" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651792</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835215</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.84779000966</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167955</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771623</v>
       </c>
       <c r="G14" t="n">
         <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I14" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J14" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K14" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L14" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M14" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993936</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827332</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785927</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.39013972282</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595859</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912875</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846702</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257735</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837046</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C15" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D15" t="n">
         <v>406.885835245268</v>
@@ -5348,49 +5348,49 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H15" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1765.500601749588</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S15" t="n">
-        <v>1702.045164197971</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T15" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1395.529973528541</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V15" t="n">
         <v>1196.412455590541</v>
@@ -5399,10 +5399,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y15" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>952.7568773477108</v>
+        <v>839.020671870245</v>
       </c>
       <c r="C16" t="n">
-        <v>780.1951658309357</v>
+        <v>666.4589603534699</v>
       </c>
       <c r="D16" t="n">
-        <v>614.3171730324584</v>
+        <v>500.5809675549926</v>
       </c>
       <c r="E16" t="n">
-        <v>444.5591692831957</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="F16" t="n">
-        <v>267.852115244952</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J16" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066092</v>
       </c>
       <c r="L16" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745702</v>
       </c>
       <c r="M16" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N16" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O16" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.22078133891</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="S16" t="n">
-        <v>2559.679081471576</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="T16" t="n">
-        <v>2313.799635050031</v>
+        <v>2313.799635050035</v>
       </c>
       <c r="U16" t="n">
-        <v>2035.366634303136</v>
+        <v>2035.36663430314</v>
       </c>
       <c r="V16" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173571</v>
       </c>
       <c r="W16" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759862</v>
       </c>
       <c r="X16" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093275</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407383</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651792</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835215</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.84779000966</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167955</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771625</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004263</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I17" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M17" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N17" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O17" t="n">
-        <v>4294.449917128814</v>
+        <v>3569.079287993936</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.389162827332</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785927</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.39013972282</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595859</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912875</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846702</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257735</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837046</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C18" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D18" t="n">
         <v>406.885835245268</v>
@@ -5585,49 +5585,49 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H18" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1765.500601749588</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S18" t="n">
-        <v>1702.045164197971</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T18" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1395.529973528541</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V18" t="n">
         <v>1196.412455590541</v>
@@ -5636,10 +5636,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y18" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>970.996046390399</v>
+        <v>952.756877347711</v>
       </c>
       <c r="C19" t="n">
-        <v>798.4343348736239</v>
+        <v>780.1951658309359</v>
       </c>
       <c r="D19" t="n">
-        <v>632.5563420751466</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E19" t="n">
-        <v>462.7983383258839</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F19" t="n">
-        <v>286.0912842876401</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>120.5000093134677</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J19" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L19" t="n">
         <v>881.8088617745661</v>
@@ -5691,34 +5691,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173583</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752038</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2194.608003005143</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1907.652494875574</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1635.626090461865</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1390.234335795278</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1162.814665109386</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5746,58 +5746,58 @@
         <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I20" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L20" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M20" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N20" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993936</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.389162827332</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785927</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.39013972282</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595859</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D21" t="n">
         <v>406.885835245268</v>
@@ -5822,49 +5822,49 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>1765.500601749588</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S21" t="n">
-        <v>1702.045164197971</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T21" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>1395.529973528541</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V21" t="n">
         <v>1196.412455590541</v>
@@ -5873,10 +5873,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y21" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3346.878440713113</v>
+        <v>952.756877347711</v>
       </c>
       <c r="C22" t="n">
-        <v>3174.316729196338</v>
+        <v>780.1951658309359</v>
       </c>
       <c r="D22" t="n">
-        <v>3008.438736397861</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E22" t="n">
-        <v>2838.680732648598</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F22" t="n">
-        <v>2661.973678610354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372007</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L22" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>5094.802844496297</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>4848.923398074752</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>4570.490397327858</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>4283.534889198289</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>4011.50848478458</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>3766.116730117992</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>3538.697059432101</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1632.322702740236</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M23" t="n">
-        <v>1632.322702740236</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6071,19 +6071,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6235,16 +6235,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4729.704604581732</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
         <v>4943.887948785924</v>
@@ -6463,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>607.2585098297291</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>430.5514557914853</v>
       </c>
       <c r="G31" t="n">
         <v>330.8229638057298</v>
@@ -6648,25 +6648,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U31" t="n">
-        <v>2117.975449367836</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,28 +6776,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
         <v>1648.327823655249</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3346.878440713113</v>
+        <v>1039.174348374283</v>
       </c>
       <c r="C34" t="n">
-        <v>3174.316729196338</v>
+        <v>866.6126368575082</v>
       </c>
       <c r="D34" t="n">
-        <v>3008.438736397861</v>
+        <v>700.7346440590309</v>
       </c>
       <c r="E34" t="n">
-        <v>2838.680732648598</v>
+        <v>530.9766403097681</v>
       </c>
       <c r="F34" t="n">
-        <v>2661.973678610354</v>
+        <v>354.2695862715243</v>
       </c>
       <c r="G34" t="n">
-        <v>2496.382403636182</v>
+        <v>188.678311297352</v>
       </c>
       <c r="H34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>5094.802844496297</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>4848.923398074752</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>4570.490397327858</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>4283.534889198289</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>4011.50848478458</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>3766.116730117992</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>3538.697059432101</v>
+        <v>1230.99296709327</v>
       </c>
     </row>
     <row r="35">
@@ -6919,46 +6919,46 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7122,19 +7122,19 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
         <v>1371.99516675259</v>
@@ -7162,64 +7162,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688178</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321677</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532228</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
+        <v>3569.079287993934</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4397.38916282733</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4943.887948785925</v>
+      </c>
+      <c r="R38" t="n">
         <v>5113.042013538981</v>
       </c>
-      <c r="P38" t="n">
-        <v>5113.042013538981</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>5113.042013538981</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5113.04201353898</v>
-      </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L41" t="n">
-        <v>1371.865819681875</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M41" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7493,10 +7493,10 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
         <v>1107.588885023173</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>790.3368563937634</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C43" t="n">
-        <v>617.7751448769883</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D43" t="n">
-        <v>451.897152078511</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E43" t="n">
-        <v>282.1391483292483</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>105.4320942910045</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7596,25 +7596,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755403</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008508</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V43" t="n">
-        <v>1726.993304878938</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W43" t="n">
-        <v>1454.96690046523</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X43" t="n">
-        <v>1209.575145798642</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1554751127505</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="44">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>1057.634124109939</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>885.0724125931644</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>719.1944197946871</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>549.4364160454243</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>372.7293620071805</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>207.1380870330082</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7809,49 +7809,49 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066082</v>
       </c>
       <c r="L46" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745692</v>
       </c>
       <c r="M46" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955482</v>
       </c>
       <c r="N46" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O46" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338908</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q46" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471579</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2559.679081471579</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2281.246080724684</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832886</v>
+        <v>1994.290572595114</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419177</v>
+        <v>1722.264168181406</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1476.872413514818</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>1249.452742828927</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7987,22 +7987,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,25 +8060,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>358.9284720888816</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8145,13 +8145,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>52.91495433479485</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684647</v>
+        <v>630.4048323684613</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558610654</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,16 +8230,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684647</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684647</v>
+        <v>630.404832368461</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684647</v>
+        <v>630.4048323684611</v>
       </c>
       <c r="L6" t="n">
-        <v>30.91440664741776</v>
+        <v>30.91440664742163</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8379,7 +8379,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>275.4921361106495</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
         <v>464.1251183645587</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>22.94960388474783</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8458,16 +8458,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8540,19 +8540,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463152</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9172,22 +9172,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>826.8607034446131</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>118.392906878933</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>922.699389992646</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>702.7389601124028</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -9661,7 +9661,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9883,19 +9883,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>216.3468123274661</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10357,22 +10357,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>350.8506558504741</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>986.1859873202736</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,16 +11059,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M41" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
@@ -11141,13 +11141,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>37.38363054573608</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627218</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>26.99333424003046</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>120.446375214268</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.20415515853266</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>102.9863699957348</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>52.94985625022261</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>141.6500182959535</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>122.4480280049944</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>588710.5728869914</v>
+        <v>588710.5728869911</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>621197.1299715989</v>
+        <v>621197.129971599</v>
       </c>
     </row>
     <row r="6">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415514.1729150666</v>
+        <v>415514.1729150665</v>
       </c>
       <c r="C2" t="n">
         <v>415514.1729150667</v>
@@ -26328,7 +26328,7 @@
         <v>408314.627706448</v>
       </c>
       <c r="G2" t="n">
-        <v>408314.6277064481</v>
+        <v>408314.627706448</v>
       </c>
       <c r="H2" t="n">
         <v>408314.627706448</v>
@@ -26337,7 +26337,7 @@
         <v>408314.627706448</v>
       </c>
       <c r="J2" t="n">
-        <v>408314.6277064479</v>
+        <v>408314.627706448</v>
       </c>
       <c r="K2" t="n">
         <v>408314.627706448</v>
@@ -26368,13 +26368,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501654</v>
+        <v>66587.76789501538</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998241</v>
+        <v>11527.59554998353</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210497</v>
+        <v>182355.1092210499</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877281</v>
+        <v>53045.85463877189</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622019</v>
+        <v>9392.301726622933</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379876</v>
+        <v>152200.1709379878</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>218225.2660325691</v>
       </c>
       <c r="C4" t="n">
-        <v>187964.4997909368</v>
+        <v>187964.4997909373</v>
       </c>
       <c r="D4" t="n">
         <v>182515.9822733277</v>
@@ -26432,7 +26432,7 @@
         <v>108317.3178284629</v>
       </c>
       <c r="G4" t="n">
-        <v>108317.3178284629</v>
+        <v>108317.3178284628</v>
       </c>
       <c r="H4" t="n">
         <v>108317.3178284629</v>
@@ -26472,22 +26472,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800265</v>
+        <v>71956.21380800245</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579255</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579255</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579255</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579255</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26502,7 +26502,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>77718.23860579252</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4327.181914434768</v>
+        <v>-4327.181914434819</v>
       </c>
       <c r="C6" t="n">
-        <v>89005.69142111077</v>
+        <v>89005.69142111149</v>
       </c>
       <c r="D6" t="n">
-        <v>147258.0705299987</v>
+        <v>147258.0705299976</v>
       </c>
       <c r="E6" t="n">
-        <v>39923.96205114282</v>
+        <v>39900.73771175999</v>
       </c>
       <c r="F6" t="n">
-        <v>222279.0712721925</v>
+        <v>222255.84693281</v>
       </c>
       <c r="G6" t="n">
-        <v>222279.0712721926</v>
+        <v>222255.84693281</v>
       </c>
       <c r="H6" t="n">
-        <v>222279.0712721926</v>
+        <v>222255.8469328099</v>
       </c>
       <c r="I6" t="n">
-        <v>222279.0712721926</v>
+        <v>222255.8469328099</v>
       </c>
       <c r="J6" t="n">
-        <v>111264.6059272023</v>
+        <v>111241.3815878197</v>
       </c>
       <c r="K6" t="n">
-        <v>169233.2166334198</v>
+        <v>169209.992294038</v>
       </c>
       <c r="L6" t="n">
-        <v>212886.7695455705</v>
+        <v>212863.545206187</v>
       </c>
       <c r="M6" t="n">
-        <v>70078.90033420497</v>
+        <v>70055.67599482214</v>
       </c>
       <c r="N6" t="n">
-        <v>222279.0712721926</v>
+        <v>222255.8469328099</v>
       </c>
       <c r="O6" t="n">
-        <v>222279.0712721926</v>
+        <v>222255.8469328099</v>
       </c>
       <c r="P6" t="n">
-        <v>222279.0712721926</v>
+        <v>222255.8469328099</v>
       </c>
     </row>
   </sheetData>
@@ -26792,22 +26792,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684647</v>
+        <v>630.4048323684611</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.469477151088676e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483604</v>
+        <v>206.1089748483568</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939223</v>
+        <v>37.11037423939584</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768888</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483604</v>
+        <v>206.1089748483568</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939223</v>
+        <v>37.11037423939584</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768879</v>
+        <v>610.7452967768888</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.469477151088676e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483604</v>
+        <v>206.1089748483568</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939223</v>
+        <v>37.11037423939584</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768888</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>399.9667529740391</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>144.5991681031489</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27432,19 +27432,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27542,19 +27542,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>90.72262734568655</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>132.0916749258914</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>147.7602269277947</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>113.8601903713204</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27779,16 +27779,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>20.24187935937644</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>12.0209406955008</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>298.2998601569337</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>12.0610071457175</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,7 +27870,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="X8" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U10" t="n">
-        <v>143.6516710866787</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28274,7 +28274,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>4.206184315279089e-12</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28338,10 +28338,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-4.469477151088676e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-2.785327524179593e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28511,7 +28511,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>4.165891301568517e-12</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-2.899014361901209e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-1.573974667076856e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30747,7 +30747,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -30881,7 +30881,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34707,22 +34707,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>358.9284720888816</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34865,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>52.91495433479485</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684647</v>
+        <v>630.4048323684613</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558610654</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,16 +34950,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684647</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684647</v>
+        <v>630.404832368461</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684647</v>
+        <v>630.4048323684611</v>
       </c>
       <c r="L6" t="n">
-        <v>30.91440664741776</v>
+        <v>30.91440664742163</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35038,7 +35038,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094343</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35099,7 +35099,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>275.4921361106495</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
         <v>464.1251183645586</v>
@@ -35111,10 +35111,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>22.94960388474783</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35178,16 +35178,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35260,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463152</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,10 +35570,10 @@
         <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924961008</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35582,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35649,13 +35649,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35743,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,19 +35807,19 @@
         <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924961007</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -35892,22 +35892,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>826.8607034446131</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35977,7 +35977,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>118.392906878933</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36059,7 +36059,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165111</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>922.699389992646</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080414</v>
@@ -36293,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>702.7389601124028</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -36381,7 +36381,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36603,19 +36603,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>216.3468123274661</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36928,10 +36928,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>350.8506558504741</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37241,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>986.1859873202736</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M41" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
@@ -37861,13 +37861,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960997</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
